--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcolmj\Documents\GitHub\doi-extractives-data\gatsby-site\src\data-graphql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsobr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="264">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Gunnison County</t>
   </si>
   <si>
-    <t>offshore</t>
-  </si>
-  <si>
     <t>St Bernard Parish</t>
   </si>
   <si>
@@ -1251,25 +1248,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="H1303" sqref="H1303"/>
+    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
+      <selection activeCell="C1441" sqref="C1441"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="5">
         <v>2003</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>224798713.59999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="5">
         <v>2003</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>898999960</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="5">
         <v>2003</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>753373594.29999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="5">
         <v>2003</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>529848.84</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="5">
         <v>2003</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>9030501.7400000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="5">
         <v>2003</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>121898.09</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="5">
         <v>2003</v>
       </c>
@@ -1425,7 +1422,7 @@
         <v>4108480.76</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="5">
         <v>2003</v>
       </c>
@@ -1443,7 +1440,7 @@
         <v>21837849.16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="5">
         <v>2003</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>53947136.920000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="5">
         <v>2003</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>368710.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="5">
         <v>2003</v>
       </c>
@@ -1497,7 +1494,7 @@
         <v>1792864.42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
@@ -1515,7 +1512,7 @@
         <v>109312.47</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>6379.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="5">
         <v>2003</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>1823378.27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="5">
         <v>2003</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>50131.79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>1182451.3700000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="5">
         <v>2003</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>430602.31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="5">
         <v>2003</v>
       </c>
@@ -28442,7 +28439,7 @@
         <v>60</v>
       </c>
       <c r="C1441" s="19" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1441" s="6"/>
       <c r="E1441" s="19"/>
@@ -30094,7 +30091,7 @@
         <v>68</v>
       </c>
       <c r="E1528" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1528" s="20">
         <v>3630.18</v>
@@ -30114,7 +30111,7 @@
         <v>68</v>
       </c>
       <c r="E1529" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1529" s="20">
         <v>2600</v>
@@ -30134,7 +30131,7 @@
         <v>68</v>
       </c>
       <c r="E1530" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1530" s="20">
         <v>2180.4</v>
@@ -30154,7 +30151,7 @@
         <v>68</v>
       </c>
       <c r="E1531" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1531" s="20">
         <v>2397.81</v>
@@ -30174,7 +30171,7 @@
         <v>68</v>
       </c>
       <c r="E1532" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1532" s="20">
         <v>2317.1899999999996</v>
@@ -30194,7 +30191,7 @@
         <v>68</v>
       </c>
       <c r="E1533" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1533" s="20">
         <v>2375.9499999999998</v>
@@ -30214,7 +30211,7 @@
         <v>68</v>
       </c>
       <c r="E1534" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1534" s="20">
         <v>4089.9800000000005</v>
@@ -30762,7 +30759,7 @@
         <v>166</v>
       </c>
       <c r="C1562" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1562" s="6" t="s">
         <v>17</v>
@@ -30780,7 +30777,7 @@
         <v>166</v>
       </c>
       <c r="C1563" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1563" s="6" t="s">
         <v>15</v>
@@ -30798,7 +30795,7 @@
         <v>166</v>
       </c>
       <c r="C1564" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1564" s="6" t="s">
         <v>30</v>
@@ -30816,7 +30813,7 @@
         <v>166</v>
       </c>
       <c r="C1565" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1565" s="6" t="s">
         <v>68</v>
@@ -30834,7 +30831,7 @@
         <v>166</v>
       </c>
       <c r="C1566" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1566" s="6" t="s">
         <v>71</v>
@@ -30852,7 +30849,7 @@
         <v>166</v>
       </c>
       <c r="C1567" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1567" s="6" t="s">
         <v>85</v>
@@ -30870,7 +30867,7 @@
         <v>166</v>
       </c>
       <c r="C1568" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1568" s="6" t="s">
         <v>133</v>
@@ -30888,7 +30885,7 @@
         <v>166</v>
       </c>
       <c r="C1569" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1569" s="6" t="s">
         <v>145</v>
@@ -30958,7 +30955,7 @@
       </c>
       <c r="D1573" s="6"/>
       <c r="E1573" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1573" s="7">
         <v>1022539457.2899991</v>
@@ -30976,7 +30973,7 @@
       </c>
       <c r="D1574" s="6"/>
       <c r="E1574" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1574" s="7">
         <v>150000000</v>
@@ -30994,7 +30991,7 @@
       </c>
       <c r="D1575" s="6"/>
       <c r="E1575" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1575" s="7">
         <v>893887297</v>
@@ -31005,14 +31002,14 @@
         <v>2018</v>
       </c>
       <c r="B1576" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1576" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D1576" s="6"/>
       <c r="E1576" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1576" s="7">
         <v>76357901.970000029</v>
@@ -31030,7 +31027,7 @@
       </c>
       <c r="D1577" s="6"/>
       <c r="E1577" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1577" s="7">
         <v>116875634.66</v>
@@ -31048,7 +31045,7 @@
       </c>
       <c r="D1578" s="6"/>
       <c r="E1578" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1578" s="7">
         <v>163170752.99000001</v>
@@ -31066,7 +31063,7 @@
       </c>
       <c r="D1579" s="6"/>
       <c r="E1579" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1579" s="7">
         <v>1221259347.2999983</v>
@@ -31086,7 +31083,7 @@
         <v>17</v>
       </c>
       <c r="E1580" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1580" s="7">
         <v>1376095.1500000001</v>
@@ -31106,7 +31103,7 @@
         <v>15</v>
       </c>
       <c r="E1581" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1581" s="7">
         <v>34370934.209999993</v>
@@ -31126,7 +31123,7 @@
         <v>25</v>
       </c>
       <c r="E1582" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1582" s="7">
         <v>9069.7200000000012</v>
@@ -31146,7 +31143,7 @@
         <v>21</v>
       </c>
       <c r="E1583" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1583" s="7">
         <v>854176.1599999998</v>
@@ -31166,7 +31163,7 @@
         <v>30</v>
       </c>
       <c r="E1584" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1584" s="7">
         <v>41429712.409999996</v>
@@ -31346,7 +31343,7 @@
         <v>34</v>
       </c>
       <c r="E1593" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1593" s="7">
         <v>112554166.89000006</v>
@@ -31406,7 +31403,7 @@
         <v>44</v>
       </c>
       <c r="E1596" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1596" s="7">
         <v>476560.88</v>
@@ -31426,7 +31423,7 @@
         <v>55</v>
       </c>
       <c r="E1597" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1597" s="7">
         <v>4333975.8100000005</v>
@@ -31526,7 +31523,7 @@
         <v>57</v>
       </c>
       <c r="E1602" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1602" s="7">
         <v>76415.92</v>
@@ -31546,7 +31543,7 @@
         <v>59</v>
       </c>
       <c r="E1603" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1603" s="7">
         <v>3693.9700000000003</v>
@@ -31566,7 +31563,7 @@
         <v>63</v>
       </c>
       <c r="E1604" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1604" s="7">
         <v>639045.52000000025</v>
@@ -31586,7 +31583,7 @@
         <v>66</v>
       </c>
       <c r="E1605" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1605" s="7">
         <v>120512.24</v>
@@ -31606,7 +31603,7 @@
         <v>68</v>
       </c>
       <c r="E1606" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1606" s="7">
         <v>2153237.5400000005</v>
@@ -31626,7 +31623,7 @@
         <v>79</v>
       </c>
       <c r="E1607" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1607" s="7">
         <v>147823.25</v>
@@ -31646,7 +31643,7 @@
         <v>81</v>
       </c>
       <c r="E1608" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1608" s="7">
         <v>11554.300000000001</v>
@@ -31666,7 +31663,7 @@
         <v>85</v>
       </c>
       <c r="E1609" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1609" s="7">
         <v>661429.36999999988</v>
@@ -31686,7 +31683,7 @@
         <v>83</v>
       </c>
       <c r="E1610" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1610" s="7">
         <v>2299269.8000000003</v>
@@ -31706,7 +31703,7 @@
         <v>87</v>
       </c>
       <c r="E1611" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1611" s="7">
         <v>25686291.770000052</v>
@@ -31726,7 +31723,7 @@
         <v>97</v>
       </c>
       <c r="E1612" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1612" s="7">
         <v>28700.580000000005</v>
@@ -31746,7 +31743,7 @@
         <v>113</v>
       </c>
       <c r="E1613" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1613" s="7">
         <v>4066416.8100000015</v>
@@ -32006,7 +32003,7 @@
         <v>105</v>
       </c>
       <c r="E1626" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1626" s="7">
         <v>634977556.71000016</v>
@@ -32066,7 +32063,7 @@
         <v>95</v>
       </c>
       <c r="E1629" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1629" s="7">
         <v>53223774.739999957</v>
@@ -32086,7 +32083,7 @@
         <v>117</v>
       </c>
       <c r="E1630" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1630" s="7">
         <v>862521.52000000025</v>
@@ -32106,7 +32103,7 @@
         <v>119</v>
       </c>
       <c r="E1631" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1631" s="7">
         <v>7867081.6499999939</v>
@@ -32126,7 +32123,7 @@
         <v>123</v>
       </c>
       <c r="E1632" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1632" s="7">
         <v>47141.71</v>
@@ -32186,7 +32183,7 @@
         <v>125</v>
       </c>
       <c r="E1635" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1635" s="7">
         <v>9880.119999999999</v>
@@ -32206,7 +32203,7 @@
         <v>135</v>
       </c>
       <c r="E1636" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1636" s="7">
         <v>518.37</v>
@@ -32226,7 +32223,7 @@
         <v>137</v>
       </c>
       <c r="E1637" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1637" s="7">
         <v>564521.81999999983</v>
@@ -32246,7 +32243,7 @@
         <v>145</v>
       </c>
       <c r="E1638" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1638" s="7">
         <v>4847388.660000002</v>
@@ -32266,7 +32263,7 @@
         <v>149</v>
       </c>
       <c r="E1639" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1639" s="7">
         <v>76015357.680000067</v>
@@ -32366,7 +32363,7 @@
         <v>151</v>
       </c>
       <c r="E1644" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1644" s="7">
         <v>39194.81</v>
@@ -32386,7 +32383,7 @@
         <v>157</v>
       </c>
       <c r="E1645" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1645" s="7">
         <v>7999.7800000000007</v>
@@ -32426,7 +32423,7 @@
         <v>161</v>
       </c>
       <c r="E1647" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1647" s="7">
         <v>470583.49000000017</v>
@@ -32446,7 +32443,7 @@
         <v>159</v>
       </c>
       <c r="E1648" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1648" s="7">
         <v>233.5</v>
@@ -32466,7 +32463,7 @@
         <v>163</v>
       </c>
       <c r="E1649" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1649" s="7">
         <v>563955987.69999945</v>
@@ -32724,7 +32721,7 @@
         <v>68</v>
       </c>
       <c r="E1662" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1662" s="7">
         <v>781611.41</v>
@@ -32744,7 +32741,7 @@
         <v>68</v>
       </c>
       <c r="E1663" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1663" s="7">
         <v>594151.57999999996</v>
@@ -32764,7 +32761,7 @@
         <v>68</v>
       </c>
       <c r="E1664" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1664" s="7">
         <v>517254.38000000006</v>
@@ -32784,7 +32781,7 @@
         <v>68</v>
       </c>
       <c r="E1665" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1665" s="7">
         <v>559530.88</v>
@@ -32804,7 +32801,7 @@
         <v>68</v>
       </c>
       <c r="E1666" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1666" s="7">
         <v>616852.85</v>
@@ -32824,7 +32821,7 @@
         <v>68</v>
       </c>
       <c r="E1667" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1667" s="7">
         <v>719952.25</v>
@@ -32844,7 +32841,7 @@
         <v>68</v>
       </c>
       <c r="E1668" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1668" s="7">
         <v>912548.87</v>
@@ -33398,7 +33395,7 @@
         <v>17</v>
       </c>
       <c r="E1696" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1696" s="7">
         <v>2384757.73</v>
@@ -33418,7 +33415,7 @@
         <v>15</v>
       </c>
       <c r="E1697" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1697" s="7">
         <v>1509923.7600000002</v>
@@ -33438,7 +33435,7 @@
         <v>30</v>
       </c>
       <c r="E1698" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1698" s="7">
         <v>1363323.5800000008</v>
@@ -33458,7 +33455,7 @@
         <v>68</v>
       </c>
       <c r="E1699" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1699" s="7">
         <v>6052631.0099999998</v>
@@ -33478,7 +33475,7 @@
         <v>85</v>
       </c>
       <c r="E1700" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1700" s="7">
         <v>259421.05999999994</v>
@@ -33498,7 +33495,7 @@
         <v>145</v>
       </c>
       <c r="E1701" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1701" s="7">
         <v>4634850.8399999961</v>
@@ -33516,7 +33513,7 @@
       </c>
       <c r="D1702" s="6"/>
       <c r="E1702" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1702" s="7">
         <v>2789421770.9399981</v>
@@ -33534,7 +33531,7 @@
       </c>
       <c r="D1703" s="6"/>
       <c r="E1703" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1703" s="7">
         <v>411828484.52999961</v>
@@ -33552,7 +33549,7 @@
       </c>
       <c r="D1704" s="6"/>
       <c r="E1704" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1704" s="7">
         <v>309064093.10999995</v>
@@ -33570,13 +33567,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -33584,7 +33581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="27.6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -33592,7 +33589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -33600,7 +33597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="27.6">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -33608,7 +33605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="14.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -33616,7 +33613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -33624,7 +33621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="27.6">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -33632,7 +33629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -33640,7 +33637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -33648,7 +33645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -33656,7 +33653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="14.4">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -33664,7 +33661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="14.4">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -33672,7 +33669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="14.4">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -33680,7 +33677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="14.4">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -33688,7 +33685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="14.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -33696,7 +33693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="14.4">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -33704,7 +33701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.4">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -33712,7 +33709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.4">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -33720,7 +33717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.4">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -33728,7 +33725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14.4">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcolmj\Documents\GitHub\doi-extractives-data\gatsby-site\src\data-graphql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\doi-extractives-data\downloads\disbursements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="264">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Gunnison County</t>
   </si>
   <si>
-    <t>offshore</t>
-  </si>
-  <si>
     <t>St Bernard Parish</t>
   </si>
   <si>
@@ -1251,25 +1248,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="H1303" sqref="H1303"/>
+    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
+      <selection activeCell="C1441" sqref="C1441"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="5">
         <v>2003</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>224798713.59999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="5">
         <v>2003</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>898999960</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="5">
         <v>2003</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>753373594.29999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="5">
         <v>2003</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>529848.84</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="5">
         <v>2003</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>9030501.7400000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="5">
         <v>2003</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>121898.09</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="5">
         <v>2003</v>
       </c>
@@ -1425,7 +1422,7 @@
         <v>4108480.76</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="5">
         <v>2003</v>
       </c>
@@ -1443,7 +1440,7 @@
         <v>21837849.16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="5">
         <v>2003</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>53947136.920000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="5">
         <v>2003</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>368710.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="5">
         <v>2003</v>
       </c>
@@ -1497,7 +1494,7 @@
         <v>1792864.42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
@@ -1515,7 +1512,7 @@
         <v>109312.47</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>6379.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="5">
         <v>2003</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>1823378.27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="5">
         <v>2003</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>50131.79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>1182451.3700000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="5">
         <v>2003</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>430602.31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="5">
         <v>2003</v>
       </c>
@@ -28442,7 +28439,7 @@
         <v>60</v>
       </c>
       <c r="C1441" s="19" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1441" s="6"/>
       <c r="E1441" s="19"/>
@@ -30094,7 +30091,7 @@
         <v>68</v>
       </c>
       <c r="E1528" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1528" s="20">
         <v>3630.18</v>
@@ -30114,7 +30111,7 @@
         <v>68</v>
       </c>
       <c r="E1529" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1529" s="20">
         <v>2600</v>
@@ -30134,7 +30131,7 @@
         <v>68</v>
       </c>
       <c r="E1530" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1530" s="20">
         <v>2180.4</v>
@@ -30154,7 +30151,7 @@
         <v>68</v>
       </c>
       <c r="E1531" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1531" s="20">
         <v>2397.81</v>
@@ -30174,7 +30171,7 @@
         <v>68</v>
       </c>
       <c r="E1532" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1532" s="20">
         <v>2317.1899999999996</v>
@@ -30194,7 +30191,7 @@
         <v>68</v>
       </c>
       <c r="E1533" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1533" s="20">
         <v>2375.9499999999998</v>
@@ -30214,7 +30211,7 @@
         <v>68</v>
       </c>
       <c r="E1534" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1534" s="20">
         <v>4089.9800000000005</v>
@@ -30762,7 +30759,7 @@
         <v>166</v>
       </c>
       <c r="C1562" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1562" s="6" t="s">
         <v>17</v>
@@ -30780,7 +30777,7 @@
         <v>166</v>
       </c>
       <c r="C1563" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1563" s="6" t="s">
         <v>15</v>
@@ -30798,7 +30795,7 @@
         <v>166</v>
       </c>
       <c r="C1564" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1564" s="6" t="s">
         <v>30</v>
@@ -30816,7 +30813,7 @@
         <v>166</v>
       </c>
       <c r="C1565" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1565" s="6" t="s">
         <v>68</v>
@@ -30834,7 +30831,7 @@
         <v>166</v>
       </c>
       <c r="C1566" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1566" s="6" t="s">
         <v>71</v>
@@ -30852,7 +30849,7 @@
         <v>166</v>
       </c>
       <c r="C1567" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1567" s="6" t="s">
         <v>85</v>
@@ -30870,7 +30867,7 @@
         <v>166</v>
       </c>
       <c r="C1568" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1568" s="6" t="s">
         <v>133</v>
@@ -30888,7 +30885,7 @@
         <v>166</v>
       </c>
       <c r="C1569" s="14" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="D1569" s="6" t="s">
         <v>145</v>
@@ -30958,7 +30955,7 @@
       </c>
       <c r="D1573" s="6"/>
       <c r="E1573" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1573" s="7">
         <v>1022539457.2899991</v>
@@ -30976,7 +30973,7 @@
       </c>
       <c r="D1574" s="6"/>
       <c r="E1574" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1574" s="7">
         <v>150000000</v>
@@ -30994,7 +30991,7 @@
       </c>
       <c r="D1575" s="6"/>
       <c r="E1575" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1575" s="7">
         <v>893887297</v>
@@ -31005,14 +31002,14 @@
         <v>2018</v>
       </c>
       <c r="B1576" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1576" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D1576" s="6"/>
       <c r="E1576" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1576" s="7">
         <v>76357901.970000029</v>
@@ -31030,7 +31027,7 @@
       </c>
       <c r="D1577" s="6"/>
       <c r="E1577" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1577" s="7">
         <v>116875634.66</v>
@@ -31048,7 +31045,7 @@
       </c>
       <c r="D1578" s="6"/>
       <c r="E1578" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1578" s="7">
         <v>163170752.99000001</v>
@@ -31066,7 +31063,7 @@
       </c>
       <c r="D1579" s="6"/>
       <c r="E1579" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1579" s="7">
         <v>1221259347.2999983</v>
@@ -31086,7 +31083,7 @@
         <v>17</v>
       </c>
       <c r="E1580" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1580" s="7">
         <v>1376095.1500000001</v>
@@ -31106,7 +31103,7 @@
         <v>15</v>
       </c>
       <c r="E1581" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1581" s="7">
         <v>34370934.209999993</v>
@@ -31126,7 +31123,7 @@
         <v>25</v>
       </c>
       <c r="E1582" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1582" s="7">
         <v>9069.7200000000012</v>
@@ -31146,7 +31143,7 @@
         <v>21</v>
       </c>
       <c r="E1583" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1583" s="7">
         <v>854176.1599999998</v>
@@ -31166,7 +31163,7 @@
         <v>30</v>
       </c>
       <c r="E1584" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1584" s="7">
         <v>41429712.409999996</v>
@@ -31346,7 +31343,7 @@
         <v>34</v>
       </c>
       <c r="E1593" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1593" s="7">
         <v>112554166.89000006</v>
@@ -31406,7 +31403,7 @@
         <v>44</v>
       </c>
       <c r="E1596" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1596" s="7">
         <v>476560.88</v>
@@ -31426,7 +31423,7 @@
         <v>55</v>
       </c>
       <c r="E1597" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1597" s="7">
         <v>4333975.8100000005</v>
@@ -31526,7 +31523,7 @@
         <v>57</v>
       </c>
       <c r="E1602" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1602" s="7">
         <v>76415.92</v>
@@ -31546,7 +31543,7 @@
         <v>59</v>
       </c>
       <c r="E1603" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1603" s="7">
         <v>3693.9700000000003</v>
@@ -31566,7 +31563,7 @@
         <v>63</v>
       </c>
       <c r="E1604" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1604" s="7">
         <v>639045.52000000025</v>
@@ -31586,7 +31583,7 @@
         <v>66</v>
       </c>
       <c r="E1605" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1605" s="7">
         <v>120512.24</v>
@@ -31606,7 +31603,7 @@
         <v>68</v>
       </c>
       <c r="E1606" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1606" s="7">
         <v>2153237.5400000005</v>
@@ -31626,7 +31623,7 @@
         <v>79</v>
       </c>
       <c r="E1607" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1607" s="7">
         <v>147823.25</v>
@@ -31646,7 +31643,7 @@
         <v>81</v>
       </c>
       <c r="E1608" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1608" s="7">
         <v>11554.300000000001</v>
@@ -31666,7 +31663,7 @@
         <v>85</v>
       </c>
       <c r="E1609" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1609" s="7">
         <v>661429.36999999988</v>
@@ -31686,7 +31683,7 @@
         <v>83</v>
       </c>
       <c r="E1610" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1610" s="7">
         <v>2299269.8000000003</v>
@@ -31706,7 +31703,7 @@
         <v>87</v>
       </c>
       <c r="E1611" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1611" s="7">
         <v>25686291.770000052</v>
@@ -31726,7 +31723,7 @@
         <v>97</v>
       </c>
       <c r="E1612" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1612" s="7">
         <v>28700.580000000005</v>
@@ -31746,7 +31743,7 @@
         <v>113</v>
       </c>
       <c r="E1613" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1613" s="7">
         <v>4066416.8100000015</v>
@@ -32006,7 +32003,7 @@
         <v>105</v>
       </c>
       <c r="E1626" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1626" s="7">
         <v>634977556.71000016</v>
@@ -32066,7 +32063,7 @@
         <v>95</v>
       </c>
       <c r="E1629" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1629" s="7">
         <v>53223774.739999957</v>
@@ -32086,7 +32083,7 @@
         <v>117</v>
       </c>
       <c r="E1630" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1630" s="7">
         <v>862521.52000000025</v>
@@ -32106,7 +32103,7 @@
         <v>119</v>
       </c>
       <c r="E1631" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1631" s="7">
         <v>7867081.6499999939</v>
@@ -32126,7 +32123,7 @@
         <v>123</v>
       </c>
       <c r="E1632" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1632" s="7">
         <v>47141.71</v>
@@ -32186,7 +32183,7 @@
         <v>125</v>
       </c>
       <c r="E1635" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1635" s="7">
         <v>9880.119999999999</v>
@@ -32206,7 +32203,7 @@
         <v>135</v>
       </c>
       <c r="E1636" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1636" s="7">
         <v>518.37</v>
@@ -32226,7 +32223,7 @@
         <v>137</v>
       </c>
       <c r="E1637" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1637" s="7">
         <v>564521.81999999983</v>
@@ -32246,7 +32243,7 @@
         <v>145</v>
       </c>
       <c r="E1638" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1638" s="7">
         <v>4847388.660000002</v>
@@ -32266,7 +32263,7 @@
         <v>149</v>
       </c>
       <c r="E1639" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1639" s="7">
         <v>76015357.680000067</v>
@@ -32366,7 +32363,7 @@
         <v>151</v>
       </c>
       <c r="E1644" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1644" s="7">
         <v>39194.81</v>
@@ -32386,7 +32383,7 @@
         <v>157</v>
       </c>
       <c r="E1645" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1645" s="7">
         <v>7999.7800000000007</v>
@@ -32426,7 +32423,7 @@
         <v>161</v>
       </c>
       <c r="E1647" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1647" s="7">
         <v>470583.49000000017</v>
@@ -32446,7 +32443,7 @@
         <v>159</v>
       </c>
       <c r="E1648" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1648" s="7">
         <v>233.5</v>
@@ -32466,7 +32463,7 @@
         <v>163</v>
       </c>
       <c r="E1649" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1649" s="7">
         <v>563955987.69999945</v>
@@ -32724,7 +32721,7 @@
         <v>68</v>
       </c>
       <c r="E1662" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1662" s="7">
         <v>781611.41</v>
@@ -32744,7 +32741,7 @@
         <v>68</v>
       </c>
       <c r="E1663" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1663" s="7">
         <v>594151.57999999996</v>
@@ -32764,7 +32761,7 @@
         <v>68</v>
       </c>
       <c r="E1664" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1664" s="7">
         <v>517254.38000000006</v>
@@ -32784,7 +32781,7 @@
         <v>68</v>
       </c>
       <c r="E1665" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1665" s="7">
         <v>559530.88</v>
@@ -32804,7 +32801,7 @@
         <v>68</v>
       </c>
       <c r="E1666" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1666" s="7">
         <v>616852.85</v>
@@ -32824,7 +32821,7 @@
         <v>68</v>
       </c>
       <c r="E1667" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1667" s="7">
         <v>719952.25</v>
@@ -32844,7 +32841,7 @@
         <v>68</v>
       </c>
       <c r="E1668" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1668" s="7">
         <v>912548.87</v>
@@ -33398,7 +33395,7 @@
         <v>17</v>
       </c>
       <c r="E1696" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1696" s="7">
         <v>2384757.73</v>
@@ -33418,7 +33415,7 @@
         <v>15</v>
       </c>
       <c r="E1697" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1697" s="7">
         <v>1509923.7600000002</v>
@@ -33438,7 +33435,7 @@
         <v>30</v>
       </c>
       <c r="E1698" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1698" s="7">
         <v>1363323.5800000008</v>
@@ -33458,7 +33455,7 @@
         <v>68</v>
       </c>
       <c r="E1699" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1699" s="7">
         <v>6052631.0099999998</v>
@@ -33478,7 +33475,7 @@
         <v>85</v>
       </c>
       <c r="E1700" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1700" s="7">
         <v>259421.05999999994</v>
@@ -33498,7 +33495,7 @@
         <v>145</v>
       </c>
       <c r="E1701" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1701" s="7">
         <v>4634850.8399999961</v>
@@ -33516,7 +33513,7 @@
       </c>
       <c r="D1702" s="6"/>
       <c r="E1702" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1702" s="7">
         <v>2789421770.9399981</v>
@@ -33534,7 +33531,7 @@
       </c>
       <c r="D1703" s="6"/>
       <c r="E1703" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1703" s="7">
         <v>411828484.52999961</v>
@@ -33552,7 +33549,7 @@
       </c>
       <c r="D1704" s="6"/>
       <c r="E1704" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1704" s="7">
         <v>309064093.10999995</v>
@@ -33570,13 +33567,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -33584,7 +33581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="27.6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -33592,7 +33589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -33600,7 +33597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="27.6">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -33608,7 +33605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="14.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -33616,7 +33613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -33624,7 +33621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="27.6">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -33632,7 +33629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -33640,7 +33637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -33648,7 +33645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -33656,7 +33653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="14.4">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -33664,7 +33661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="14.4">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -33672,7 +33669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="14.4">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -33680,7 +33677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="14.4">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -33688,7 +33685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="14.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -33696,7 +33693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="14.4">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -33704,7 +33701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.4">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -33712,7 +33709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.4">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -33720,7 +33717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.4">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -33728,7 +33725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14.4">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1424" workbookViewId="0">
       <selection activeCell="C1441" sqref="C1441"/>
     </sheetView>
   </sheetViews>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="2003-2018" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1424" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1669" workbookViewId="0">
       <selection activeCell="C1441" sqref="C1441"/>
     </sheetView>
   </sheetViews>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcolmj\Documents\GitHub\doi-extractives-data\gatsby-site\src\data-graphql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\doi-extractives-data\downloads\disbursements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$1704</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -908,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -968,6 +971,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,25 +1257,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="H1303" sqref="H1303"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="5">
         <v>2003</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>224798713.59999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="5">
         <v>2003</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>898999960</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="5">
         <v>2003</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>753373594.29999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="5">
         <v>2003</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>529848.84</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="5">
         <v>2003</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>9030501.7400000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="5">
         <v>2003</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>121898.09</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="5">
         <v>2003</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>4108480.76</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="5">
         <v>2003</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>21837849.16</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="5">
         <v>2003</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>53947136.920000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="5">
         <v>2003</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>368710.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="5">
         <v>2003</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>1792864.42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>109312.47</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>6379.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="5">
         <v>2003</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>1823378.27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="5">
         <v>2003</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>50131.79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
@@ -1587,7 +1593,7 @@
         <v>1182451.3700000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="5">
         <v>2003</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>430602.31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="5">
         <v>2003</v>
       </c>
@@ -28441,8 +28447,8 @@
       <c r="B1441" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1441" s="19" t="s">
-        <v>255</v>
+      <c r="C1441" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="D1441" s="6"/>
       <c r="E1441" s="19"/>
@@ -33559,6 +33565,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1704"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -33570,13 +33577,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -33584,7 +33591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="27.6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -33592,7 +33599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -33600,7 +33607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="27.6">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -33608,7 +33615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="14.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -33616,7 +33623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -33624,7 +33631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="27.6">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -33632,7 +33639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -33640,7 +33647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -33648,7 +33655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -33656,7 +33663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="14.4">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -33664,7 +33671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="14.4">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -33672,7 +33679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="14.4">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -33680,7 +33687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="14.4">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -33688,7 +33695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="14.4">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -33696,7 +33703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="14.4">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -33704,7 +33711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="14.4">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -33712,7 +33719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="14.4">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -33720,7 +33727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="14.4">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -33728,7 +33735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14.4">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$1704</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6518" uniqueCount="265">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -884,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -907,11 +907,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -975,6 +1003,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1704"/>
+  <dimension ref="A1:I1833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A1810" workbookViewId="0">
+      <selection activeCell="C1835" sqref="C1835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -33547,21 +33581,2471 @@
       </c>
     </row>
     <row r="1704" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1704" s="5">
+      <c r="A1704" s="27">
         <v>2018</v>
       </c>
-      <c r="B1704" s="6" t="s">
+      <c r="B1704" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C1704" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1704" s="6"/>
-      <c r="E1704" s="6" t="s">
+      <c r="C1704" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1704" s="28"/>
+      <c r="E1704" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="F1704" s="7">
+      <c r="F1704" s="29">
         <v>309064093.10999995</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" ht="15" customHeight="1">
+      <c r="A1705" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1705" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1705" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1705" s="30"/>
+      <c r="E1705" s="30"/>
+      <c r="F1705" s="30">
+        <v>1139867747.5100007</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" ht="15" customHeight="1">
+      <c r="A1706" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1706" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1706" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1706" s="30"/>
+      <c r="E1706" s="30"/>
+      <c r="F1706" s="30">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" ht="15" customHeight="1">
+      <c r="A1707" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1707" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1707" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1707" s="30"/>
+      <c r="E1707" s="30"/>
+      <c r="F1707" s="30">
+        <v>1759494867.0599999</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" ht="15" customHeight="1">
+      <c r="A1708" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1708" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1708" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1708" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1708" s="30"/>
+      <c r="F1708" s="30">
+        <v>2667502.6799999997</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" ht="15" customHeight="1">
+      <c r="A1709" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1709" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1709" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1709" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1709" s="30"/>
+      <c r="F1709" s="30">
+        <v>24409487.269999996</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" ht="15" customHeight="1">
+      <c r="A1710" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1710" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1710" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1710" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1710" s="30"/>
+      <c r="F1710" s="30">
+        <v>854119.4</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" ht="15" customHeight="1">
+      <c r="A1711" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1711" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1711" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1711" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1711" s="30"/>
+      <c r="F1711" s="30">
+        <v>7664.43</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" ht="15" customHeight="1">
+      <c r="A1712" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1712" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1712" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1712" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1712" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1712" s="30">
+        <v>44504.49</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" ht="15" customHeight="1">
+      <c r="A1713" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1713" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1713" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1713" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1713" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1713" s="30">
+        <v>86622.18</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" ht="15" customHeight="1">
+      <c r="A1714" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1714" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1714" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1714" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1714" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1714" s="30">
+        <v>758861.4</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" ht="15" customHeight="1">
+      <c r="A1715" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1715" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1715" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1715" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1715" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1715" s="30">
+        <v>21823.719999999998</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" ht="15" customHeight="1">
+      <c r="A1716" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1716" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1716" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1716" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1716" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1716" s="30">
+        <v>96203.200000000012</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" ht="15" customHeight="1">
+      <c r="A1717" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1717" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1717" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1717" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1717" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1717" s="30">
+        <v>3212.8</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" ht="15" customHeight="1">
+      <c r="A1718" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1718" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1718" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1718" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1718" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1718" s="30">
+        <v>1139738.6900000004</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" ht="15" customHeight="1">
+      <c r="A1719" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1719" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1719" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1719" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1719" s="30"/>
+      <c r="F1719" s="30">
+        <v>43890494.06000001</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" ht="15" customHeight="1">
+      <c r="A1720" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1720" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1720" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1720" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1720" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1720" s="30">
+        <v>602.4</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" ht="15" customHeight="1">
+      <c r="A1721" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1721" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1721" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1721" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1721" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1721" s="30">
+        <v>12167.600000000002</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" ht="15" customHeight="1">
+      <c r="A1722" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1722" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1722" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1722" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1722" s="30"/>
+      <c r="F1722" s="30">
+        <v>108037705.12000002</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" ht="15" customHeight="1">
+      <c r="A1723" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1723" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1723" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1723" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1723" s="30"/>
+      <c r="F1723" s="30">
+        <v>611413.18999999994</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" ht="15" customHeight="1">
+      <c r="A1724" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1724" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1724" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1724" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1724" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1724" s="30">
+        <v>44878.65</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" ht="15" customHeight="1">
+      <c r="A1725" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1725" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1725" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1725" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1725" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1725" s="30">
+        <v>16712.080000000002</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" ht="15" customHeight="1">
+      <c r="A1726" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1726" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1726" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1726" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1726" s="30"/>
+      <c r="F1726" s="30">
+        <v>3652216.2800000007</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6" ht="15" customHeight="1">
+      <c r="A1727" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1727" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1727" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1727" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1727" s="30"/>
+      <c r="F1727" s="30">
+        <v>74636.31</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6" ht="15" customHeight="1">
+      <c r="A1728" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1728" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1728" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1728" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1728" s="30"/>
+      <c r="F1728" s="30">
+        <v>666194.52</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" ht="15" customHeight="1">
+      <c r="A1729" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1729" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1729" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1729" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1729" s="30"/>
+      <c r="F1729" s="30">
+        <v>339158.34</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" ht="15" customHeight="1">
+      <c r="A1730" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1730" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1730" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1730" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1730" s="30"/>
+      <c r="F1730" s="30">
+        <v>2862668.77</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" ht="15" customHeight="1">
+      <c r="A1731" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1731" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1731" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1731" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1731" s="30"/>
+      <c r="F1731" s="30">
+        <v>44851.220000000016</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" ht="15" customHeight="1">
+      <c r="A1732" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1732" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1732" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1732" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1732" s="30"/>
+      <c r="F1732" s="30">
+        <v>105617.58</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" ht="15" customHeight="1">
+      <c r="A1733" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1733" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1733" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1733" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1733" s="30"/>
+      <c r="F1733" s="30">
+        <v>1760238.9000000001</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" ht="15" customHeight="1">
+      <c r="A1734" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1734" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1734" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1734" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1734" s="30"/>
+      <c r="F1734" s="30">
+        <v>613880.51</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" ht="15" customHeight="1">
+      <c r="A1735" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1735" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1735" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1735" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1735" s="30"/>
+      <c r="F1735" s="30">
+        <v>29991520.41</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" ht="15" customHeight="1">
+      <c r="A1736" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1736" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1736" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1736" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1736" s="30"/>
+      <c r="F1736" s="30">
+        <v>93654131.989999905</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" ht="15" customHeight="1">
+      <c r="A1737" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1737" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1737" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1737" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1737" s="30"/>
+      <c r="F1737" s="30">
+        <v>22947.869999999995</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" ht="15" customHeight="1">
+      <c r="A1738" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1738" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1738" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1738" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1738" s="30"/>
+      <c r="F1738" s="30">
+        <v>1165936659.539999</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" ht="15" customHeight="1">
+      <c r="A1739" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1739" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1739" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1739" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1739" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1739" s="30">
+        <v>10024.539999999999</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" ht="15" customHeight="1">
+      <c r="A1740" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1740" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1740" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1740" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1740" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1740" s="30">
+        <v>16951.48</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" ht="15" customHeight="1">
+      <c r="A1741" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1741" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1741" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1741" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1741" s="30"/>
+      <c r="F1741" s="30">
+        <v>4949740.0299999984</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" ht="15" customHeight="1">
+      <c r="A1742" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1742" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1742" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1742" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1742" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1742" s="30">
+        <v>1197023.76</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" ht="15" customHeight="1">
+      <c r="A1743" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1743" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1743" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1743" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1743" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1743" s="30">
+        <v>3551.1099999999997</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" ht="15" customHeight="1">
+      <c r="A1744" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1744" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1744" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1744" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1744" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1744" s="30">
+        <v>16962.28</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" ht="15" customHeight="1">
+      <c r="A1745" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1745" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1745" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1745" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1745" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1745" s="30">
+        <v>26582.5</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" ht="15" customHeight="1">
+      <c r="A1746" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1746" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1746" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1746" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1746" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1746" s="30">
+        <v>41359.840000000004</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" ht="15" customHeight="1">
+      <c r="A1747" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1747" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1747" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1747" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1747" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1747" s="30">
+        <v>359626.21</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6" ht="15" customHeight="1">
+      <c r="A1748" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1748" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1748" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1748" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1748" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1748" s="30">
+        <v>14090.27</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" ht="15" customHeight="1">
+      <c r="A1749" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1749" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1749" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1749" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1749" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1749" s="30">
+        <v>133959.16000000003</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" ht="15" customHeight="1">
+      <c r="A1750" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1750" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1750" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1750" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1750" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1750" s="30">
+        <v>391.56</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6" ht="15" customHeight="1">
+      <c r="A1751" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1751" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1751" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1751" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1751" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1751" s="30">
+        <v>31406.680000000004</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" ht="15" customHeight="1">
+      <c r="A1752" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1752" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1752" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1752" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1752" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1752" s="30">
+        <v>38855.839999999997</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" ht="15" customHeight="1">
+      <c r="A1753" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1753" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1753" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1753" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1753" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1753" s="30">
+        <v>61.68</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" ht="15" customHeight="1">
+      <c r="A1754" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1754" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1754" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1754" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1754" s="30"/>
+      <c r="F1754" s="30">
+        <v>285310.40000000002</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" ht="15" customHeight="1">
+      <c r="A1755" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1755" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1755" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1755" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1755" s="30"/>
+      <c r="F1755" s="30">
+        <v>3431820.0799999996</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" ht="15" customHeight="1">
+      <c r="A1756" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1756" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1756" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1756" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1756" s="30"/>
+      <c r="F1756" s="30">
+        <v>30447.939999999995</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" ht="15" customHeight="1">
+      <c r="A1757" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1757" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1757" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1757" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1757" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1757" s="30">
+        <v>15929.57</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" ht="15" customHeight="1">
+      <c r="A1758" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1758" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1758" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1758" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1758" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1758" s="30">
+        <v>253.74</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" ht="15" customHeight="1">
+      <c r="A1759" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1759" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1759" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1759" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1759" s="30"/>
+      <c r="F1759" s="30">
+        <v>17185.29</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" ht="15" customHeight="1">
+      <c r="A1760" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1760" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1760" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1760" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1760" s="30"/>
+      <c r="F1760" s="30">
+        <v>780.88</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" ht="15" customHeight="1">
+      <c r="A1761" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1761" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1761" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1761" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1761" s="30"/>
+      <c r="F1761" s="30">
+        <v>479110.52999999997</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" ht="15" customHeight="1">
+      <c r="A1762" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1762" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1762" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1762" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1762" s="30"/>
+      <c r="F1762" s="30">
+        <v>4792638.9400000004</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" ht="15" customHeight="1">
+      <c r="A1763" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1763" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1763" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1763" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1763" s="30"/>
+      <c r="F1763" s="30">
+        <v>71529311.650000021</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" ht="15" customHeight="1">
+      <c r="A1764" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1764" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1764" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1764" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1764" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1764" s="30">
+        <v>146055.18999999994</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" ht="15" customHeight="1">
+      <c r="A1765" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1765" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1765" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1765" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1765" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1765" s="30">
+        <v>279.83999999999997</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" ht="15" customHeight="1">
+      <c r="A1766" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1766" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1766" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1766" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1766" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1766" s="30">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" ht="15" customHeight="1">
+      <c r="A1767" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1767" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1767" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1767" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1767" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1767" s="30">
+        <v>19146.320000000007</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6" ht="15" customHeight="1">
+      <c r="A1768" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1768" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1768" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1768" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1768" s="30"/>
+      <c r="F1768" s="30">
+        <v>49018.460000000006</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" ht="15" customHeight="1">
+      <c r="A1769" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1769" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1769" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1769" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1769" s="30"/>
+      <c r="F1769" s="30">
+        <v>5191.0700000000006</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" ht="15" customHeight="1">
+      <c r="A1770" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1770" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1770" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1770" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1770" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1770" s="30">
+        <v>2117.69</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" ht="15" customHeight="1">
+      <c r="A1771" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1771" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1771" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1771" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1771" s="30"/>
+      <c r="F1771" s="30">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" ht="15" customHeight="1">
+      <c r="A1772" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1772" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1772" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1772" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1772" s="30"/>
+      <c r="F1772" s="30">
+        <v>92881.2</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" ht="15" customHeight="1">
+      <c r="A1773" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1773" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1773" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1773" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1773" s="30"/>
+      <c r="F1773" s="30">
+        <v>641109255.6400001</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" ht="15" customHeight="1">
+      <c r="A1774" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1774" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1774" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1774" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1774" s="30"/>
+      <c r="F1774" s="30">
+        <v>24476087.600000001</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" ht="15" customHeight="1">
+      <c r="A1775" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1775" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1775" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1775" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1775" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1775" s="30">
+        <v>2751485.4400000004</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" ht="15" customHeight="1">
+      <c r="A1776" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1776" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1776" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1776" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1776" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1776" s="30">
+        <v>3367536.46</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" ht="15" customHeight="1">
+      <c r="A1777" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1777" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1777" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1777" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1777" s="30"/>
+      <c r="F1777" s="30">
+        <v>75782553.459999993</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" ht="15" customHeight="1">
+      <c r="A1778" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1778" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1778" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1778" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1778" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1778" s="30">
+        <v>624301.84</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" ht="15" customHeight="1">
+      <c r="A1779" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1779" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1779" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1779" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1779" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1779" s="30">
+        <v>1006346.2000000001</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" ht="15" customHeight="1">
+      <c r="A1780" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1780" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1780" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1780" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1780" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1780" s="30">
+        <v>1294393.8700000001</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" ht="15" customHeight="1">
+      <c r="A1781" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1781" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1781" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1781" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1781" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1781" s="30">
+        <v>993921.56</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" ht="15" customHeight="1">
+      <c r="A1782" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1782" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1782" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1782" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1782" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1782" s="30">
+        <v>1571308.46</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" ht="15" customHeight="1">
+      <c r="A1783" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1783" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1783" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1783" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1783" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1783" s="30">
+        <v>980198.20000000007</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" ht="15" customHeight="1">
+      <c r="A1784" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1784" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1784" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1784" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1784" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1784" s="30">
+        <v>783550</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" ht="15" customHeight="1">
+      <c r="A1785" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1785" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1785" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1785" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1785" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1785" s="30">
+        <v>1299392.4500000002</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" ht="15" customHeight="1">
+      <c r="A1786" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1786" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1786" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1786" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1786" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1786" s="30">
+        <v>1856690.72</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" ht="15" customHeight="1">
+      <c r="A1787" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1787" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1787" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1787" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1787" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1787" s="30">
+        <v>892386.94000000006</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" ht="15" customHeight="1">
+      <c r="A1788" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1788" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1788" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1788" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1788" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1788" s="30">
+        <v>666344.39</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" ht="15" customHeight="1">
+      <c r="A1789" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1789" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1789" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1789" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1789" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1789" s="30">
+        <v>582115.68999999994</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" ht="15" customHeight="1">
+      <c r="A1790" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1790" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1790" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1790" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1790" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1790" s="30">
+        <v>629068.20000000007</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" ht="15" customHeight="1">
+      <c r="A1791" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1791" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1791" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1791" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1791" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1791" s="30">
+        <v>704743.85</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" ht="15" customHeight="1">
+      <c r="A1792" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1792" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1792" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1792" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1792" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1792" s="30">
+        <v>833307.13</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" ht="15" customHeight="1">
+      <c r="A1793" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1793" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1793" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1793" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1793" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1793" s="30">
+        <v>1030784.21</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6" ht="15" customHeight="1">
+      <c r="A1794" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1794" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1794" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1794" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1794" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1794" s="30">
+        <v>752643.60000000009</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6" ht="15" customHeight="1">
+      <c r="A1795" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1795" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1795" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1795" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1795" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1795" s="30">
+        <v>1450355.8399999999</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6" ht="15" customHeight="1">
+      <c r="A1796" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1796" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1796" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1796" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1796" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1796" s="30">
+        <v>993785.16999999993</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" ht="15" customHeight="1">
+      <c r="A1797" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1797" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1797" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1797" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1797" s="30"/>
+      <c r="F1797" s="30">
+        <v>25379084.759999998</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" ht="15" customHeight="1">
+      <c r="A1798" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1798" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1798" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1798" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1798" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1798" s="30">
+        <v>1188862.9099999999</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" ht="15" customHeight="1">
+      <c r="A1799" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1799" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1799" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1799" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1799" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1799" s="30">
+        <v>2470050.41</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" ht="15" customHeight="1">
+      <c r="A1800" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1800" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1800" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1800" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1800" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1800" s="30">
+        <v>2685857.87</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" ht="15" customHeight="1">
+      <c r="A1801" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1801" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1801" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1801" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1801" s="30"/>
+      <c r="F1801" s="30">
+        <v>46313471.210000001</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" ht="15" customHeight="1">
+      <c r="A1802" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1802" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1802" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1802" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1802" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1802" s="30">
+        <v>466178.75</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" ht="15" customHeight="1">
+      <c r="A1803" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1803" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1803" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1803" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1803" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1803" s="30">
+        <v>779380.51</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" ht="15" customHeight="1">
+      <c r="A1804" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1804" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1804" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1804" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1804" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1804" s="30">
+        <v>628382.99</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" ht="15" customHeight="1">
+      <c r="A1805" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1805" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1805" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1805" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1805" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1805" s="30">
+        <v>658510.61</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" ht="15" customHeight="1">
+      <c r="A1806" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1806" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1806" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1806" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1806" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1806" s="30">
+        <v>406855.51999999996</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6" ht="15" customHeight="1">
+      <c r="A1807" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1807" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1807" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1807" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1807" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1807" s="30">
+        <v>1024591.91</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6" ht="15" customHeight="1">
+      <c r="A1808" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1808" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1808" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1808" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1808" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1808" s="30">
+        <v>2263694.4899999998</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" ht="15" customHeight="1">
+      <c r="A1809" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1809" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1809" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1809" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1809" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1809" s="30">
+        <v>300964.36</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6" ht="15" customHeight="1">
+      <c r="A1810" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1810" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1810" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1810" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1810" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1810" s="30">
+        <v>794042.37</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6" ht="15" customHeight="1">
+      <c r="A1811" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1811" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1811" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1811" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1811" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1811" s="30">
+        <v>633309.25</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" ht="15" customHeight="1">
+      <c r="A1812" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1812" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1812" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1812" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1812" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1812" s="30">
+        <v>459956.66</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6" ht="15" customHeight="1">
+      <c r="A1813" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1813" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1813" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1813" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1813" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1813" s="30">
+        <v>901868.29999999993</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6" ht="15" customHeight="1">
+      <c r="A1814" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1814" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1814" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1814" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1814" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1814" s="30">
+        <v>614486.78</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" ht="15" customHeight="1">
+      <c r="A1815" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1815" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1815" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1815" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1815" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1815" s="30">
+        <v>392328.39</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6" ht="15" customHeight="1">
+      <c r="A1816" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1816" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1816" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1816" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1816" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1816" s="30">
+        <v>285845.51</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6" ht="15" customHeight="1">
+      <c r="A1817" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1817" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1817" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1817" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1817" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1817" s="30">
+        <v>298699.68999999994</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" ht="15" customHeight="1">
+      <c r="A1818" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1818" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1818" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1818" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1818" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1818" s="30">
+        <v>310203.11</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6" ht="15" customHeight="1">
+      <c r="A1819" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1819" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1819" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1819" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1819" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1819" s="30">
+        <v>359068.63</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6" ht="15" customHeight="1">
+      <c r="A1820" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1820" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1820" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1820" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1820" s="30"/>
+      <c r="F1820" s="30">
+        <v>1504454.7599999998</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6" ht="15" customHeight="1">
+      <c r="A1821" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1821" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1821" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1821" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1821" s="30"/>
+      <c r="F1821" s="30">
+        <v>774834.16000000015</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6" ht="15" customHeight="1">
+      <c r="A1822" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1822" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1822" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1822" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1822" s="30"/>
+      <c r="F1822" s="30">
+        <v>1224333.2</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6" ht="15" customHeight="1">
+      <c r="A1823" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1823" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1823" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1823" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1823" s="30"/>
+      <c r="F1823" s="30">
+        <v>3736426.2800000007</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6" ht="15" customHeight="1">
+      <c r="A1824" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1824" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1824" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1824" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1824" s="30"/>
+      <c r="F1824" s="30">
+        <v>23835.06</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6" ht="15" customHeight="1">
+      <c r="A1825" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1825" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1825" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1825" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1825" s="30"/>
+      <c r="F1825" s="30">
+        <v>837624.59999999986</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6" ht="15" customHeight="1">
+      <c r="A1826" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1826" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1826" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1826" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1826" s="30"/>
+      <c r="F1826" s="30">
+        <v>2436980.2400000007</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" ht="15" customHeight="1">
+      <c r="A1827" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1827" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1827" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1827" s="30"/>
+      <c r="E1827" s="30"/>
+      <c r="F1827" s="30">
+        <v>877772576</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6" ht="15" customHeight="1">
+      <c r="A1828" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1828" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1828" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1828" s="30"/>
+      <c r="E1828" s="30"/>
+      <c r="F1828" s="30">
+        <v>129981811.54000001</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6" ht="15" customHeight="1">
+      <c r="A1829" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1829" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1829" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1829" s="30"/>
+      <c r="E1829" s="30"/>
+      <c r="F1829" s="30">
+        <v>550389297.22000015</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6" ht="15" customHeight="1">
+      <c r="A1830" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1830" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1830" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1830" s="30"/>
+      <c r="E1830" s="30"/>
+      <c r="F1830" s="30">
+        <v>3826926986.7700009</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6" ht="15" customHeight="1">
+      <c r="A1831" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1831" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1831" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1831" s="30"/>
+      <c r="E1831" s="30"/>
+      <c r="F1831" s="30">
+        <v>526724874.93000001</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6" ht="15" customHeight="1">
+      <c r="A1832" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1832" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1832" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1832" s="30"/>
+      <c r="E1832" s="30"/>
+      <c r="F1832" s="30">
+        <v>110056156.59999999</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" ht="15" customHeight="1">
+      <c r="A1833" s="27">
+        <v>2019</v>
+      </c>
+      <c r="B1833" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1833" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1833" s="30"/>
+      <c r="E1833" s="30"/>
+      <c r="F1833" s="30">
+        <v>185298293.67000008</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\doi-extractives-data\downloads\disbursements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\doi-extractives-data\downloads\disbursements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9168"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$F$1833</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$F$1833</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\doi-extractives-data\downloads\disbursements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcolmj\Documents\GitHub\doi-extractives-data\downloads\disbursements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6518" uniqueCount="265">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -1255,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1704"/>
+  <dimension ref="A1:I1833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A1693" workbookViewId="0">
+      <selection activeCell="B1712" sqref="B1712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -33562,6 +33562,2456 @@
       </c>
       <c r="F1704" s="7">
         <v>309064093.10999995</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" ht="15" customHeight="1">
+      <c r="A1705" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1705" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1705" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1705" s="6"/>
+      <c r="E1705" s="6"/>
+      <c r="F1705" s="7">
+        <v>1139867748</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" ht="15" customHeight="1">
+      <c r="A1706" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1706" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1706" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1706" s="6"/>
+      <c r="E1706" s="6"/>
+      <c r="F1706" s="7">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" ht="15" customHeight="1">
+      <c r="A1707" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1707" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1707" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1707" s="6"/>
+      <c r="E1707" s="6"/>
+      <c r="F1707" s="7">
+        <v>1759494867</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" ht="15" customHeight="1">
+      <c r="A1708" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1708" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1708" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1708" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1708" s="6"/>
+      <c r="F1708" s="7">
+        <v>2667502.6800000002</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" ht="15" customHeight="1">
+      <c r="A1709" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1709" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1709" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1709" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1709" s="6"/>
+      <c r="F1709" s="7">
+        <v>24409487.27</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" ht="15" customHeight="1">
+      <c r="A1710" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1710" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1710" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1710" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1710" s="6"/>
+      <c r="F1710" s="7">
+        <v>854119.4</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" ht="15" customHeight="1">
+      <c r="A1711" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1711" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1711" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1711" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1711" s="6"/>
+      <c r="F1711" s="7">
+        <v>7664.43</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" ht="15" customHeight="1">
+      <c r="A1712" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1712" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1712" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1712" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1712" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1712" s="7">
+        <v>44504.49</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" ht="15" customHeight="1">
+      <c r="A1713" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1713" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1713" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1713" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1713" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1713" s="7">
+        <v>86622.18</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" ht="15" customHeight="1">
+      <c r="A1714" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1714" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1714" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1714" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1714" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1714" s="7">
+        <v>758861.4</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" ht="15" customHeight="1">
+      <c r="A1715" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1715" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1715" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1715" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1715" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1715" s="7">
+        <v>21823.72</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" ht="15" customHeight="1">
+      <c r="A1716" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1716" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1716" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1716" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1716" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1716" s="7">
+        <v>96203.199999999997</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" ht="15" customHeight="1">
+      <c r="A1717" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1717" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1717" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1717" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1717" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1717" s="7">
+        <v>3212.8</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" ht="15" customHeight="1">
+      <c r="A1718" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1718" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1718" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1718" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1718" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1718" s="7">
+        <v>1139738.69</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" ht="15" customHeight="1">
+      <c r="A1719" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1719" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1719" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1719" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1719" s="6"/>
+      <c r="F1719" s="7">
+        <v>43890494.060000002</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" ht="15" customHeight="1">
+      <c r="A1720" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1720" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1720" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1720" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1720" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1720" s="7">
+        <v>602.4</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" ht="15" customHeight="1">
+      <c r="A1721" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1721" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1721" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1721" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1721" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1721" s="7">
+        <v>12167.6</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" ht="15" customHeight="1">
+      <c r="A1722" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1722" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1722" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1722" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1722" s="6"/>
+      <c r="F1722" s="7">
+        <v>108037705.09999999</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" ht="15" customHeight="1">
+      <c r="A1723" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1723" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1723" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1723" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1723" s="6"/>
+      <c r="F1723" s="7">
+        <v>611413.18999999994</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" ht="15" customHeight="1">
+      <c r="A1724" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1724" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1724" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1724" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1724" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1724" s="7">
+        <v>44878.65</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" ht="15" customHeight="1">
+      <c r="A1725" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1725" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1725" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1725" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1725" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1725" s="7">
+        <v>16712.080000000002</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" ht="15" customHeight="1">
+      <c r="A1726" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1726" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1726" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1726" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1726" s="6"/>
+      <c r="F1726" s="7">
+        <v>3652216.28</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6" ht="15" customHeight="1">
+      <c r="A1727" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1727" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1727" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1727" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1727" s="6"/>
+      <c r="F1727" s="7">
+        <v>74636.31</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6" ht="15" customHeight="1">
+      <c r="A1728" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1728" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1728" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1728" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1728" s="6"/>
+      <c r="F1728" s="7">
+        <v>666194.52</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" ht="15" customHeight="1">
+      <c r="A1729" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1729" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1729" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1729" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1729" s="6"/>
+      <c r="F1729" s="7">
+        <v>339158.34</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" ht="15" customHeight="1">
+      <c r="A1730" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1730" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1730" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1730" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1730" s="6"/>
+      <c r="F1730" s="7">
+        <v>2862668.77</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" ht="15" customHeight="1">
+      <c r="A1731" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1731" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1731" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1731" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1731" s="6"/>
+      <c r="F1731" s="7">
+        <v>44851.22</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" ht="15" customHeight="1">
+      <c r="A1732" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1732" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1732" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1732" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1732" s="6"/>
+      <c r="F1732" s="7">
+        <v>105617.58</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" ht="15" customHeight="1">
+      <c r="A1733" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1733" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1733" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1733" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1733" s="6"/>
+      <c r="F1733" s="7">
+        <v>1760238.9</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" ht="15" customHeight="1">
+      <c r="A1734" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1734" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1734" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1734" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1734" s="6"/>
+      <c r="F1734" s="7">
+        <v>613880.51</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" ht="15" customHeight="1">
+      <c r="A1735" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1735" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1735" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1735" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1735" s="6"/>
+      <c r="F1735" s="7">
+        <v>29991520.41</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" ht="15" customHeight="1">
+      <c r="A1736" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1736" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1736" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1736" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1736" s="6"/>
+      <c r="F1736" s="7">
+        <v>93654131.989999995</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" ht="15" customHeight="1">
+      <c r="A1737" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1737" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1737" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1737" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1737" s="6"/>
+      <c r="F1737" s="7">
+        <v>22947.87</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" ht="15" customHeight="1">
+      <c r="A1738" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1738" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1738" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1738" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1738" s="6"/>
+      <c r="F1738" s="7">
+        <v>1165936660</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" ht="15" customHeight="1">
+      <c r="A1739" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1739" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1739" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1739" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1739" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1739" s="7">
+        <v>10024.540000000001</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" ht="15" customHeight="1">
+      <c r="A1740" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1740" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1740" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1740" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1740" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1740" s="7">
+        <v>16951.48</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" ht="15" customHeight="1">
+      <c r="A1741" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1741" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1741" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1741" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1741" s="6"/>
+      <c r="F1741" s="7">
+        <v>4949740.03</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" ht="15" customHeight="1">
+      <c r="A1742" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1742" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1742" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1742" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1742" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1742" s="7">
+        <v>1197023.76</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" ht="15" customHeight="1">
+      <c r="A1743" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1743" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1743" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1743" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1743" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1743" s="7">
+        <v>3551.11</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" ht="15" customHeight="1">
+      <c r="A1744" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1744" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1744" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1744" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1744" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1744" s="7">
+        <v>16962.28</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" ht="15" customHeight="1">
+      <c r="A1745" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1745" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1745" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1745" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1745" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1745" s="7">
+        <v>26582.5</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" ht="15" customHeight="1">
+      <c r="A1746" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1746" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1746" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1746" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1746" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1746" s="7">
+        <v>41359.839999999997</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" ht="15" customHeight="1">
+      <c r="A1747" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1747" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1747" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1747" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1747" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1747" s="7">
+        <v>359626.21</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6" ht="15" customHeight="1">
+      <c r="A1748" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1748" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1748" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1748" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1748" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1748" s="7">
+        <v>14090.27</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" ht="15" customHeight="1">
+      <c r="A1749" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1749" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1749" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1749" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1749" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1749" s="7">
+        <v>133959.16</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" ht="15" customHeight="1">
+      <c r="A1750" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1750" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1750" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1750" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1750" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1750" s="7">
+        <v>391.56</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6" ht="15" customHeight="1">
+      <c r="A1751" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1751" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1751" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1751" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1751" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1751" s="7">
+        <v>31406.68</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" ht="15" customHeight="1">
+      <c r="A1752" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1752" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1752" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1752" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1752" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1752" s="7">
+        <v>38855.839999999997</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" ht="15" customHeight="1">
+      <c r="A1753" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1753" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1753" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1753" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1753" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1753" s="7">
+        <v>61.68</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" ht="15" customHeight="1">
+      <c r="A1754" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1754" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1754" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1754" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1754" s="6"/>
+      <c r="F1754" s="7">
+        <v>285310.40000000002</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" ht="15" customHeight="1">
+      <c r="A1755" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1755" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1755" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1755" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1755" s="6"/>
+      <c r="F1755" s="7">
+        <v>3431820.08</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" ht="15" customHeight="1">
+      <c r="A1756" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1756" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1756" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1756" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1756" s="6"/>
+      <c r="F1756" s="7">
+        <v>30447.94</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" ht="15" customHeight="1">
+      <c r="A1757" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1757" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1757" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1757" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1757" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1757" s="7">
+        <v>15929.57</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" ht="15" customHeight="1">
+      <c r="A1758" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1758" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1758" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1758" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1758" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1758" s="7">
+        <v>253.74</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" ht="15" customHeight="1">
+      <c r="A1759" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1759" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1759" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1759" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1759" s="6"/>
+      <c r="F1759" s="7">
+        <v>17185.29</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" ht="15" customHeight="1">
+      <c r="A1760" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1760" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1760" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1760" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1760" s="6"/>
+      <c r="F1760" s="7">
+        <v>780.88</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" ht="15" customHeight="1">
+      <c r="A1761" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1761" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1761" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1761" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1761" s="6"/>
+      <c r="F1761" s="7">
+        <v>479110.53</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" ht="15" customHeight="1">
+      <c r="A1762" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1762" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1762" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1762" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1762" s="6"/>
+      <c r="F1762" s="7">
+        <v>4792638.9400000004</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" ht="15" customHeight="1">
+      <c r="A1763" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1763" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1763" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1763" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1763" s="6"/>
+      <c r="F1763" s="7">
+        <v>71529311.650000006</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" ht="15" customHeight="1">
+      <c r="A1764" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1764" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1764" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1764" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1764" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1764" s="7">
+        <v>146055.19</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" ht="15" customHeight="1">
+      <c r="A1765" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1765" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1765" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1765" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1765" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1765" s="7">
+        <v>279.83999999999997</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" ht="15" customHeight="1">
+      <c r="A1766" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1766" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1766" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1766" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1766" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1766" s="7">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" ht="15" customHeight="1">
+      <c r="A1767" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1767" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1767" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1767" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1767" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1767" s="7">
+        <v>19146.32</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6" ht="15" customHeight="1">
+      <c r="A1768" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1768" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1768" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1768" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1768" s="6"/>
+      <c r="F1768" s="7">
+        <v>49018.46</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" ht="15" customHeight="1">
+      <c r="A1769" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1769" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1769" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1769" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1769" s="6"/>
+      <c r="F1769" s="7">
+        <v>5191.07</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" ht="15" customHeight="1">
+      <c r="A1770" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1770" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1770" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1770" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1770" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1770" s="7">
+        <v>2117.69</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" ht="15" customHeight="1">
+      <c r="A1771" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1771" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1771" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1771" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1771" s="6"/>
+      <c r="F1771" s="7">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" ht="15" customHeight="1">
+      <c r="A1772" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1772" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1772" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1772" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1772" s="6"/>
+      <c r="F1772" s="7">
+        <v>92881.2</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" ht="15" customHeight="1">
+      <c r="A1773" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1773" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1773" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1773" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1773" s="6"/>
+      <c r="F1773" s="7">
+        <v>641109255.60000002</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" ht="15" customHeight="1">
+      <c r="A1774" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1774" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1774" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1774" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1774" s="6"/>
+      <c r="F1774" s="7">
+        <v>24476087.600000001</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" ht="15" customHeight="1">
+      <c r="A1775" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1775" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1775" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1775" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1775" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1775" s="7">
+        <v>2751485.44</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" ht="15" customHeight="1">
+      <c r="A1776" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1776" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1776" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1776" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1776" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1776" s="7">
+        <v>3367536.46</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" ht="15" customHeight="1">
+      <c r="A1777" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1777" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1777" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1777" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1777" s="6"/>
+      <c r="F1777" s="7">
+        <v>75782553.459999993</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" ht="15" customHeight="1">
+      <c r="A1778" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1778" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1778" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1778" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1778" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1778" s="7">
+        <v>624301.84</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" ht="15" customHeight="1">
+      <c r="A1779" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1779" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1779" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1779" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1779" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1779" s="7">
+        <v>1006346.2</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" ht="15" customHeight="1">
+      <c r="A1780" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1780" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1780" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1780" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1780" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1780" s="7">
+        <v>1294393.8700000001</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" ht="15" customHeight="1">
+      <c r="A1781" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1781" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1781" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1781" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1781" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1781" s="7">
+        <v>993921.56</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" ht="15" customHeight="1">
+      <c r="A1782" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1782" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1782" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1782" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1782" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1782" s="7">
+        <v>1571308.46</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" ht="15" customHeight="1">
+      <c r="A1783" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1783" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1783" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1783" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1783" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1783" s="7">
+        <v>980198.2</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" ht="15" customHeight="1">
+      <c r="A1784" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1784" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1784" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1784" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1784" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1784" s="7">
+        <v>783550</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" ht="15" customHeight="1">
+      <c r="A1785" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1785" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1785" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1785" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1785" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1785" s="7">
+        <v>1299392.45</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" ht="15" customHeight="1">
+      <c r="A1786" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1786" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1786" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1786" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1786" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1786" s="7">
+        <v>1856690.72</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" ht="15" customHeight="1">
+      <c r="A1787" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1787" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1787" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1787" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1787" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1787" s="7">
+        <v>892386.94</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" ht="15" customHeight="1">
+      <c r="A1788" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1788" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1788" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1788" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1788" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1788" s="7">
+        <v>666344.39</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" ht="15" customHeight="1">
+      <c r="A1789" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1789" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1789" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1789" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1789" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1789" s="7">
+        <v>582115.68999999994</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" ht="15" customHeight="1">
+      <c r="A1790" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1790" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1790" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1790" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1790" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1790" s="7">
+        <v>629068.19999999995</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" ht="15" customHeight="1">
+      <c r="A1791" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1791" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1791" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1791" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1791" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1791" s="7">
+        <v>704743.85</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" ht="15" customHeight="1">
+      <c r="A1792" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1792" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1792" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1792" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1792" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1792" s="7">
+        <v>833307.13</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" ht="15" customHeight="1">
+      <c r="A1793" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1793" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1793" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1793" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1793" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1793" s="7">
+        <v>1030784.21</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6" ht="15" customHeight="1">
+      <c r="A1794" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1794" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1794" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1794" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1794" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1794" s="7">
+        <v>752643.6</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6" ht="15" customHeight="1">
+      <c r="A1795" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1795" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1795" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1795" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1795" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1795" s="7">
+        <v>1450355.84</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6" ht="15" customHeight="1">
+      <c r="A1796" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1796" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1796" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1796" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1796" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1796" s="7">
+        <v>993785.17</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" ht="15" customHeight="1">
+      <c r="A1797" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1797" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1797" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1797" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1797" s="6"/>
+      <c r="F1797" s="7">
+        <v>25379084.760000002</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" ht="15" customHeight="1">
+      <c r="A1798" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1798" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1798" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1798" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1798" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1798" s="7">
+        <v>1188862.9099999999</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" ht="15" customHeight="1">
+      <c r="A1799" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1799" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1799" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1799" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1799" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1799" s="7">
+        <v>2470050.41</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" ht="15" customHeight="1">
+      <c r="A1800" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1800" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1800" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1800" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1800" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1800" s="7">
+        <v>2685857.87</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" ht="15" customHeight="1">
+      <c r="A1801" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1801" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1801" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1801" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1801" s="6"/>
+      <c r="F1801" s="7">
+        <v>46313471.210000001</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" ht="15" customHeight="1">
+      <c r="A1802" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1802" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1802" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1802" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1802" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1802" s="7">
+        <v>466178.75</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" ht="15" customHeight="1">
+      <c r="A1803" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1803" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1803" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1803" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1803" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1803" s="7">
+        <v>779380.51</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" ht="15" customHeight="1">
+      <c r="A1804" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1804" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1804" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1804" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1804" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1804" s="7">
+        <v>628382.99</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" ht="15" customHeight="1">
+      <c r="A1805" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1805" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1805" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1805" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1805" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1805" s="7">
+        <v>658510.61</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" ht="15" customHeight="1">
+      <c r="A1806" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1806" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1806" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1806" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1806" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1806" s="7">
+        <v>406855.52</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6" ht="15" customHeight="1">
+      <c r="A1807" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1807" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1807" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1807" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1807" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1807" s="7">
+        <v>1024591.91</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6" ht="15" customHeight="1">
+      <c r="A1808" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1808" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1808" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1808" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1808" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1808" s="7">
+        <v>2263694.4900000002</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" ht="15" customHeight="1">
+      <c r="A1809" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1809" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1809" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1809" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1809" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1809" s="7">
+        <v>300964.36</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6" ht="15" customHeight="1">
+      <c r="A1810" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1810" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1810" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1810" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1810" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1810" s="7">
+        <v>794042.37</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6" ht="15" customHeight="1">
+      <c r="A1811" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1811" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1811" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1811" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1811" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1811" s="7">
+        <v>633309.25</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" ht="15" customHeight="1">
+      <c r="A1812" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1812" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1812" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1812" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1812" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1812" s="7">
+        <v>459956.66</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6" ht="15" customHeight="1">
+      <c r="A1813" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1813" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1813" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1813" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1813" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1813" s="7">
+        <v>901868.3</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6" ht="15" customHeight="1">
+      <c r="A1814" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1814" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1814" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1814" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1814" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1814" s="7">
+        <v>614486.78</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" ht="15" customHeight="1">
+      <c r="A1815" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1815" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1815" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1815" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1815" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1815" s="7">
+        <v>392328.39</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6" ht="15" customHeight="1">
+      <c r="A1816" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1816" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1816" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1816" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1816" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1816" s="7">
+        <v>285845.51</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6" ht="15" customHeight="1">
+      <c r="A1817" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1817" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1817" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1817" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1817" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1817" s="7">
+        <v>298699.69</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" ht="15" customHeight="1">
+      <c r="A1818" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1818" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1818" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1818" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1818" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1818" s="7">
+        <v>310203.11</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6" ht="15" customHeight="1">
+      <c r="A1819" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1819" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1819" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1819" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1819" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1819" s="7">
+        <v>359068.63</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6" ht="15" customHeight="1">
+      <c r="A1820" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1820" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1820" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1820" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1820" s="6"/>
+      <c r="F1820" s="7">
+        <v>1504454.76</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6" ht="15" customHeight="1">
+      <c r="A1821" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1821" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1821" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1821" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1821" s="6"/>
+      <c r="F1821" s="7">
+        <v>774834.16</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6" ht="15" customHeight="1">
+      <c r="A1822" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1822" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1822" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1822" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1822" s="6"/>
+      <c r="F1822" s="7">
+        <v>1224333.2</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6" ht="15" customHeight="1">
+      <c r="A1823" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1823" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1823" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1823" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1823" s="6"/>
+      <c r="F1823" s="7">
+        <v>3736426.28</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6" ht="15" customHeight="1">
+      <c r="A1824" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1824" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1824" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1824" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1824" s="6"/>
+      <c r="F1824" s="7">
+        <v>23835.06</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6" ht="15" customHeight="1">
+      <c r="A1825" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1825" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1825" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1825" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1825" s="6"/>
+      <c r="F1825" s="7">
+        <v>837624.6</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6" ht="15" customHeight="1">
+      <c r="A1826" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1826" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1826" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1826" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1826" s="6"/>
+      <c r="F1826" s="7">
+        <v>2436980.2400000002</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" ht="15" customHeight="1">
+      <c r="A1827" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1827" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1827" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1827" s="6"/>
+      <c r="E1827" s="6"/>
+      <c r="F1827" s="7">
+        <v>877772576</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6" ht="15" customHeight="1">
+      <c r="A1828" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1828" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1828" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1828" s="6"/>
+      <c r="E1828" s="6"/>
+      <c r="F1828" s="7">
+        <v>129981811.5</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6" ht="15" customHeight="1">
+      <c r="A1829" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1829" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1829" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1829" s="6"/>
+      <c r="E1829" s="6"/>
+      <c r="F1829" s="7">
+        <v>550389297.20000005</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6" ht="15" customHeight="1">
+      <c r="A1830" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1830" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1830" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1830" s="6"/>
+      <c r="E1830" s="6"/>
+      <c r="F1830" s="7">
+        <v>3826926987</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6" ht="15" customHeight="1">
+      <c r="A1831" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1831" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1831" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1831" s="6"/>
+      <c r="E1831" s="6"/>
+      <c r="F1831" s="7">
+        <v>526724874.89999998</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6" ht="15" customHeight="1">
+      <c r="A1832" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1832" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1832" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1832" s="6"/>
+      <c r="E1832" s="6"/>
+      <c r="F1832" s="7">
+        <v>110056156.59999999</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" ht="15" customHeight="1">
+      <c r="A1833" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B1833" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1833" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1833" s="6"/>
+      <c r="E1833" s="6"/>
+      <c r="F1833" s="7">
+        <v>185298293.69999999</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:I1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1693" workbookViewId="0">
-      <selection activeCell="B1712" sqref="B1712"/>
+      <selection activeCell="G1707" sqref="G1707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/downloads/disbursements/disbursements.xlsx
+++ b/downloads/disbursements/disbursements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mentastc\Documents\GitHub\doi-extractives-data\downloads\disbursements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F1B6DD-B182-4842-8D75-830035F15123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B4DA7C-392E-4497-9048-39C30C528619}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="256">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>RI</t>
-  </si>
-  <si>
-    <t>offshore</t>
   </si>
   <si>
     <t>Land &amp; Water Conservation Fund - GoMesa</t>
@@ -1667,7 +1664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1551" workbookViewId="0">
+      <selection activeCell="H1558" sqref="H1558"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1696,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -31135,7 +31134,7 @@
         <v>44</v>
       </c>
       <c r="C1561" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1561" s="4" t="s">
         <v>11</v>
@@ -31153,7 +31152,7 @@
         <v>44</v>
       </c>
       <c r="C1562" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1562" s="4" t="s">
         <v>12</v>
@@ -31171,7 +31170,7 @@
         <v>44</v>
       </c>
       <c r="C1563" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1563" s="4" t="s">
         <v>15</v>
@@ -31189,7 +31188,7 @@
         <v>44</v>
       </c>
       <c r="C1564" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1564" s="4" t="s">
         <v>23</v>
@@ -31207,7 +31206,7 @@
         <v>44</v>
       </c>
       <c r="C1565" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1565" s="4" t="s">
         <v>132</v>
@@ -31225,7 +31224,7 @@
         <v>44</v>
       </c>
       <c r="C1566" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1566" s="4" t="s">
         <v>26</v>
@@ -31243,7 +31242,7 @@
         <v>44</v>
       </c>
       <c r="C1567" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1567" s="4" t="s">
         <v>137</v>
@@ -31261,7 +31260,7 @@
         <v>44</v>
       </c>
       <c r="C1568" s="4" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D1568" s="4" t="s">
         <v>39</v>
@@ -31372,7 +31371,7 @@
         <v>2018</v>
       </c>
       <c r="B1575" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1575" s="4" t="s">
         <v>8</v>
@@ -32736,7 +32735,7 @@
         <v>6</v>
       </c>
       <c r="D1647" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1647" s="4"/>
       <c r="F1647" s="5">
@@ -35086,7 +35085,7 @@
         <v>6</v>
       </c>
       <c r="D1770" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1770" s="4"/>
       <c r="F1770" s="5">
@@ -36280,6 +36279,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1832" xr:uid="{79A44272-7DF0-40AB-8085-354F7BA7DC75}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -36300,39 +36300,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -36340,7 +36340,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
@@ -36348,15 +36348,15 @@
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
@@ -36364,15 +36364,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
@@ -36380,15 +36380,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>15</v>
@@ -36396,15 +36396,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>16</v>
@@ -36412,39 +36412,39 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>17</v>
@@ -36452,39 +36452,39 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>18</v>
@@ -36492,7 +36492,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>19</v>
@@ -36500,7 +36500,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>20</v>
@@ -36508,7 +36508,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>21</v>
@@ -36516,7 +36516,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>22</v>
@@ -36524,7 +36524,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>23</v>
@@ -36532,7 +36532,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>132</v>
@@ -36540,31 +36540,31 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>24</v>
@@ -36572,7 +36572,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>25</v>
@@ -36580,7 +36580,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>27</v>
@@ -36588,7 +36588,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>26</v>
@@ -36596,7 +36596,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>28</v>
@@ -36604,23 +36604,23 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>129</v>
@@ -36628,7 +36628,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>32</v>
@@ -36636,7 +36636,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>29</v>
@@ -36644,31 +36644,31 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>31</v>
@@ -36676,31 +36676,31 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>30</v>
@@ -36708,15 +36708,15 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>33</v>
@@ -36724,7 +36724,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>34</v>
@@ -36732,15 +36732,15 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>35</v>
@@ -36748,7 +36748,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>36</v>
@@ -36756,31 +36756,31 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>137</v>
@@ -36788,7 +36788,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>37</v>
@@ -36796,7 +36796,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>38</v>
@@ -36804,15 +36804,15 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>47</v>
@@ -36820,15 +36820,15 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>39</v>
@@ -36836,15 +36836,15 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>40</v>
@@ -36852,7 +36852,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>48</v>
@@ -36860,23 +36860,23 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>41</v>
@@ -36884,15 +36884,15 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>42</v>
@@ -36900,7 +36900,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>43</v>
@@ -36908,10 +36908,10 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
